--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.263604666666666</v>
+        <v>1.360200666666667</v>
       </c>
       <c r="N2">
-        <v>9.790813999999999</v>
+        <v>4.080602</v>
       </c>
       <c r="O2">
-        <v>0.03661341763237714</v>
+        <v>0.014316771935026</v>
       </c>
       <c r="P2">
-        <v>0.03661341763237714</v>
+        <v>0.014316771935026</v>
       </c>
       <c r="Q2">
-        <v>1.785582297358444</v>
+        <v>0.7441925353464445</v>
       </c>
       <c r="R2">
-        <v>16.070240676226</v>
+        <v>6.697732818117999</v>
       </c>
       <c r="S2">
-        <v>0.03661341763237714</v>
+        <v>0.014316771935026</v>
       </c>
       <c r="T2">
-        <v>0.03661341763237714</v>
+        <v>0.014316771935026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>215.649994</v>
       </c>
       <c r="O3">
-        <v>0.8064378807259157</v>
+        <v>0.7566069373802504</v>
       </c>
       <c r="P3">
-        <v>0.8064378807259157</v>
+        <v>0.7566069373802504</v>
       </c>
       <c r="Q3">
         <v>39.32878427798289</v>
@@ -632,10 +632,10 @@
         <v>353.959058501846</v>
       </c>
       <c r="S3">
-        <v>0.8064378807259157</v>
+        <v>0.7566069373802504</v>
       </c>
       <c r="T3">
-        <v>0.8064378807259157</v>
+        <v>0.7566069373802504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.98991266666667</v>
+        <v>21.763965</v>
       </c>
       <c r="N4">
-        <v>41.969738</v>
+        <v>65.291895</v>
       </c>
       <c r="O4">
-        <v>0.1569487016417071</v>
+        <v>0.2290762906847235</v>
       </c>
       <c r="P4">
-        <v>0.1569487016417071</v>
+        <v>0.2290762906847235</v>
       </c>
       <c r="Q4">
-        <v>7.654156354882445</v>
+        <v>11.907493276145</v>
       </c>
       <c r="R4">
-        <v>68.887407193942</v>
+        <v>107.167439485305</v>
       </c>
       <c r="S4">
-        <v>0.1569487016417071</v>
+        <v>0.2290762906847235</v>
       </c>
       <c r="T4">
-        <v>0.1569487016417071</v>
+        <v>0.2290762906847235</v>
       </c>
     </row>
   </sheetData>
